--- a/공정 재분류 내역 및 교체 시간 정리(250820).xlsx
+++ b/공정 재분류 내역 및 교체 시간 정리(250820).xlsx
@@ -5,26 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\OneDrive\바탕 화면\생산계획\스케줄링-0828\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\OneDrive\바탕 화면\생산계획\스케줄링-0828 의존성 문제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE5C0C7-ECB4-4CDC-A3A4-98556E708B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C73532-D834-4B0B-B331-3610746D3808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="2580" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAA006I" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="공정군" sheetId="3" r:id="rId4"/>
-    <sheet name="공정교체시간" sheetId="4" r:id="rId5"/>
-    <sheet name="폭변경" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="공정군" sheetId="3" r:id="rId3"/>
+    <sheet name="공정교체시간" sheetId="4" r:id="rId4"/>
+    <sheet name="폭변경" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MAA006I!$A$1:$C$191</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$C$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet3!$A$1:$H$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$C$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet3!$A$1:$H$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3922,19 +3921,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618E663E-387E-4FC5-A379-CCEBCCD54DE6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -4623,7 +4609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5577604-4CEA-4564-B883-A507B3D5B4F9}">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -5062,7 +5048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79695EBA-C2EA-46A2-A798-71633FC6A772}">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -5500,11 +5486,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C74613-90EC-4BAD-8F9F-D63692543995}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -5577,12 +5563,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787132C6-C12F-4C73-BD0A-776E0954D94E}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
